--- a/Gestão de Projeto/Gestão de Custo e Esforço.xlsx
+++ b/Gestão de Projeto/Gestão de Custo e Esforço.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fábio Teixeira\Documents\MIERSI\4.º Ano\GPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanes\Documents\Universidade\Gestão de Projetos Informáticos\Trabalho\GPI-iPark\Gestão de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -549,24 +549,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,6 +583,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,138 +925,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="AD92" sqref="AD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5546875" style="11" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" style="11" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="16.5546875" style="11" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="6.77734375" style="12" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="38.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="32" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="24" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="22" t="s">
+      <c r="S2" s="33"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="38" t="s">
         <v>15</v>
       </c>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="23"/>
+      <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,13 +1111,13 @@
       <c r="S3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="23"/>
+      <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="str">
@@ -5947,10 +5947,10 @@
         <f t="shared" si="3"/>
         <v>8275</v>
       </c>
-      <c r="X62" s="27">
+      <c r="X62" s="21">
         <v>58250</v>
       </c>
-      <c r="Y62" s="30" t="s">
+      <c r="Y62" s="24" t="s">
         <v>20</v>
       </c>
       <c r="Z62" s="19" t="s">
@@ -6031,8 +6031,8 @@
         <f t="shared" si="3"/>
         <v>1640</v>
       </c>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="30"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="24"/>
       <c r="Z63" s="19" t="s">
         <v>70</v>
       </c>
@@ -6111,8 +6111,8 @@
         <f t="shared" si="3"/>
         <v>2408.3333333333335</v>
       </c>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="30"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="24"/>
       <c r="Z64" s="19" t="s">
         <v>71</v>
       </c>
@@ -6191,8 +6191,8 @@
         <f t="shared" si="3"/>
         <v>690</v>
       </c>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="30"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="24"/>
       <c r="Z65" s="19" t="s">
         <v>72</v>
       </c>
@@ -6271,8 +6271,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="30"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="24"/>
       <c r="Z66" s="19" t="s">
         <v>73</v>
       </c>
@@ -6351,8 +6351,8 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="30"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="24"/>
       <c r="Z67" s="19" t="s">
         <v>74</v>
       </c>
@@ -6431,8 +6431,8 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="30"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="24"/>
       <c r="Z68" s="19" t="s">
         <v>75</v>
       </c>
@@ -6511,8 +6511,8 @@
         <f t="shared" ref="W69:W85" si="7">V69*T69</f>
         <v>11.25</v>
       </c>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="30"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="24"/>
       <c r="Z69" s="19" t="s">
         <v>76</v>
       </c>
@@ -6591,8 +6591,8 @@
         <f t="shared" si="7"/>
         <v>7.2916666666666661</v>
       </c>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="30"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="24"/>
       <c r="Z70" s="19" t="s">
         <v>73</v>
       </c>
@@ -6671,8 +6671,8 @@
         <f t="shared" si="7"/>
         <v>2.7916666666666665</v>
       </c>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="30"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="24"/>
       <c r="Z71" s="19" t="s">
         <v>77</v>
       </c>
@@ -6751,8 +6751,8 @@
         <f t="shared" si="7"/>
         <v>242.08333333333334</v>
       </c>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="30"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="24"/>
       <c r="Z72" s="19" t="s">
         <v>78</v>
       </c>
@@ -8027,6 +8027,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
     <mergeCell ref="X62:X72"/>
     <mergeCell ref="Y62:Y72"/>
     <mergeCell ref="A1:A3"/>
@@ -8043,12 +8049,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
